--- a/new-stats/cucuta-deportivo-fc.xlsx
+++ b/new-stats/cucuta-deportivo-fc.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27/01/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/cucuta-deportivo-fc.xlsx
+++ b/new-stats/cucuta-deportivo-fc.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/cucuta-deportivo-fc.xlsx
+++ b/new-stats/cucuta-deportivo-fc.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/cucuta-deportivo-fc.xlsx
+++ b/new-stats/cucuta-deportivo-fc.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/cucuta-deportivo-fc.xlsx
+++ b/new-stats/cucuta-deportivo-fc.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
